--- a/database/CBOTFuturesData.xlsx
+++ b/database/CBOTFuturesData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="24345" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,10 +54,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="###,###,###,###,##0.00"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -77,32 +77,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,63 +92,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,8 +113,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,7 +208,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,7 +229,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,73 +265,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,13 +289,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,25 +331,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,7 +349,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,13 +397,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,6 +420,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,38 +504,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,39 +520,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -528,10 +528,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,133 +540,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1005,14 +1005,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3376"/>
+  <dimension ref="A1:D3402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E3348" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E3360" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G3374" sqref="G3374"/>
+      <selection pane="bottomRight" activeCell="G3381" sqref="G3381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -48250,6 +48250,307 @@
         <v>881.75</v>
       </c>
     </row>
+    <row r="3377" spans="1:4">
+      <c r="A3377" s="2">
+        <v>43627</v>
+      </c>
+      <c r="B3377" s="4">
+        <v>518</v>
+      </c>
+      <c r="C3377">
+        <v>427.75</v>
+      </c>
+      <c r="D3377">
+        <v>859.25</v>
+      </c>
+    </row>
+    <row r="3378" spans="1:4">
+      <c r="A3378" s="2">
+        <v>43634</v>
+      </c>
+      <c r="B3378" s="4">
+        <v>531.5</v>
+      </c>
+      <c r="C3378">
+        <v>449.75</v>
+      </c>
+      <c r="D3378" s="4">
+        <v>913.5</v>
+      </c>
+    </row>
+    <row r="3379" spans="1:4">
+      <c r="A3379" s="2">
+        <v>43641</v>
+      </c>
+      <c r="B3379" s="4">
+        <v>540</v>
+      </c>
+      <c r="C3379" s="4">
+        <v>453</v>
+      </c>
+      <c r="D3379" s="4">
+        <v>914.5</v>
+      </c>
+    </row>
+    <row r="3380" spans="1:4">
+      <c r="A3380" s="2">
+        <v>43648</v>
+      </c>
+      <c r="B3380" s="4">
+        <v>503.25</v>
+      </c>
+      <c r="C3380" s="4">
+        <v>419</v>
+      </c>
+      <c r="D3380" s="4">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="3381" spans="1:4">
+      <c r="A3381" s="2">
+        <v>43655</v>
+      </c>
+      <c r="B3381" s="4">
+        <v>502.75</v>
+      </c>
+      <c r="C3381" s="4">
+        <v>432.5</v>
+      </c>
+      <c r="D3381" s="4">
+        <v>891.75</v>
+      </c>
+    </row>
+    <row r="3382" spans="1:4">
+      <c r="A3382" s="2">
+        <v>43662</v>
+      </c>
+      <c r="B3382" s="4">
+        <v>507.5</v>
+      </c>
+      <c r="C3382" s="4">
+        <v>435.25</v>
+      </c>
+      <c r="D3382" s="4">
+        <v>893.75</v>
+      </c>
+    </row>
+    <row r="3383" spans="1:4">
+      <c r="A3383" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B3383" s="4">
+        <v>487.25</v>
+      </c>
+      <c r="C3383" s="4">
+        <v>425.5</v>
+      </c>
+      <c r="D3383" s="4">
+        <v>891.5</v>
+      </c>
+    </row>
+    <row r="3384" spans="1:4">
+      <c r="A3384" s="2">
+        <v>43676</v>
+      </c>
+      <c r="B3384" s="4">
+        <v>497.25</v>
+      </c>
+      <c r="C3384" s="4">
+        <v>411.25</v>
+      </c>
+      <c r="D3384" s="4">
+        <v>878.75</v>
+      </c>
+    </row>
+    <row r="3385" spans="1:4">
+      <c r="A3385" s="2">
+        <v>43683</v>
+      </c>
+      <c r="B3385" s="4">
+        <v>484</v>
+      </c>
+      <c r="C3385" s="4">
+        <v>404</v>
+      </c>
+      <c r="D3385" s="4">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="3386" spans="1:4">
+      <c r="A3386" s="2">
+        <v>43690</v>
+      </c>
+      <c r="B3386" s="4">
+        <v>475.75</v>
+      </c>
+      <c r="C3386" s="4">
+        <v>376.5</v>
+      </c>
+      <c r="D3386" s="4">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="3387" spans="1:4">
+      <c r="A3387" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B3387" s="4">
+        <v>466.5</v>
+      </c>
+      <c r="C3387" s="4">
+        <v>368.75</v>
+      </c>
+      <c r="D3387" s="4">
+        <v>868.25</v>
+      </c>
+    </row>
+    <row r="3388" spans="1:4">
+      <c r="A3388" s="2">
+        <v>43704</v>
+      </c>
+      <c r="B3388" s="4">
+        <v>476.75</v>
+      </c>
+      <c r="C3388" s="4">
+        <v>366.25</v>
+      </c>
+      <c r="D3388" s="4">
+        <v>859.25</v>
+      </c>
+    </row>
+    <row r="3389" spans="1:4">
+      <c r="A3389" s="2">
+        <v>43711</v>
+      </c>
+      <c r="B3389" s="4">
+        <v>453.5</v>
+      </c>
+      <c r="C3389" s="4">
+        <v>361</v>
+      </c>
+      <c r="D3389" s="4">
+        <v>868.5</v>
+      </c>
+    </row>
+    <row r="3390" spans="1:4">
+      <c r="A3390" s="2">
+        <v>43718</v>
+      </c>
+      <c r="B3390" s="4">
+        <v>482.25</v>
+      </c>
+      <c r="C3390" s="4">
+        <v>361.5</v>
+      </c>
+      <c r="D3390" s="4">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="3391" spans="1:4">
+      <c r="A3391" s="2">
+        <v>43725</v>
+      </c>
+      <c r="B3391" s="4">
+        <v>484.25</v>
+      </c>
+      <c r="C3391" s="4">
+        <v>368</v>
+      </c>
+      <c r="D3391" s="4">
+        <v>893.75</v>
+      </c>
+    </row>
+    <row r="3392" spans="1:4">
+      <c r="A3392" s="2">
+        <v>43732</v>
+      </c>
+      <c r="B3392" s="4">
+        <v>481.75</v>
+      </c>
+      <c r="C3392" s="4">
+        <v>374.75</v>
+      </c>
+      <c r="D3392" s="4">
+        <v>894.25</v>
+      </c>
+    </row>
+    <row r="3393" spans="1:4">
+      <c r="A3393" s="2">
+        <v>43739</v>
+      </c>
+      <c r="B3393" s="4">
+        <v>498.75</v>
+      </c>
+      <c r="C3393" s="4">
+        <v>392.5</v>
+      </c>
+      <c r="D3393" s="4">
+        <v>919.5</v>
+      </c>
+    </row>
+    <row r="3394" spans="1:4">
+      <c r="A3394" s="2">
+        <v>43746</v>
+      </c>
+      <c r="B3394" s="4">
+        <v>500.25</v>
+      </c>
+      <c r="C3394" s="4">
+        <v>395.75</v>
+      </c>
+      <c r="D3394" s="4">
+        <v>920.5</v>
+      </c>
+    </row>
+    <row r="3395" spans="1:4">
+      <c r="A3395" s="2">
+        <v>43753</v>
+      </c>
+      <c r="B3395" s="4">
+        <v>507</v>
+      </c>
+      <c r="C3395" s="4">
+        <v>393.25</v>
+      </c>
+      <c r="D3395" s="4">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="3396" spans="2:4">
+      <c r="B3396" s="4"/>
+      <c r="C3396" s="4"/>
+      <c r="D3396" s="4"/>
+    </row>
+    <row r="3397" spans="2:4">
+      <c r="B3397" s="4"/>
+      <c r="C3397" s="4"/>
+      <c r="D3397" s="4"/>
+    </row>
+    <row r="3398" spans="2:4">
+      <c r="B3398" s="4"/>
+      <c r="C3398" s="4"/>
+      <c r="D3398" s="4"/>
+    </row>
+    <row r="3399" spans="2:4">
+      <c r="B3399" s="4"/>
+      <c r="C3399" s="4"/>
+      <c r="D3399" s="4"/>
+    </row>
+    <row r="3400" spans="2:4">
+      <c r="B3400" s="4"/>
+      <c r="C3400" s="4"/>
+      <c r="D3400" s="4"/>
+    </row>
+    <row r="3401" spans="2:4">
+      <c r="B3401" s="4"/>
+      <c r="C3401" s="4"/>
+      <c r="D3401" s="4"/>
+    </row>
+    <row r="3402" spans="2:4">
+      <c r="B3402" s="4"/>
+      <c r="C3402" s="4"/>
+      <c r="D3402" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/database/CBOTFuturesData.xlsx
+++ b/database/CBOTFuturesData.xlsx
@@ -54,12 +54,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="###,###,###,###,##0.00"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -70,15 +70,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,6 +91,13 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -107,15 +116,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,61 +144,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -199,8 +159,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,6 +177,38 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,61 +229,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,18 +248,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,13 +271,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,25 +295,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,13 +337,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,7 +391,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,6 +420,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -438,17 +453,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,6 +481,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -485,41 +520,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -528,10 +528,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,133 +540,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1008,11 +1008,11 @@
   <dimension ref="A1:D3402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E3360" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E3375" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G3381" sqref="G3381"/>
+      <selection pane="bottomRight" activeCell="G3384" sqref="G3384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -48516,20 +48516,49 @@
         <v>934</v>
       </c>
     </row>
-    <row r="3396" spans="2:4">
-      <c r="B3396" s="4"/>
-      <c r="C3396" s="4"/>
-      <c r="D3396" s="4"/>
-    </row>
-    <row r="3397" spans="2:4">
-      <c r="B3397" s="4"/>
-      <c r="C3397" s="4"/>
-      <c r="D3397" s="4"/>
-    </row>
-    <row r="3398" spans="2:4">
-      <c r="B3398" s="4"/>
-      <c r="C3398" s="4"/>
-      <c r="D3398" s="4"/>
+    <row r="3396" spans="1:4">
+      <c r="A3396" s="2">
+        <v>43760</v>
+      </c>
+      <c r="B3396" s="4">
+        <v>518</v>
+      </c>
+      <c r="C3396" s="4">
+        <v>388</v>
+      </c>
+      <c r="D3396" s="4">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="3397" spans="1:4">
+      <c r="A3397" s="2">
+        <f>A3396+7</f>
+        <v>43767</v>
+      </c>
+      <c r="B3397" s="4">
+        <v>511.5</v>
+      </c>
+      <c r="C3397" s="4">
+        <v>386.25</v>
+      </c>
+      <c r="D3397" s="4">
+        <v>918.25</v>
+      </c>
+    </row>
+    <row r="3398" spans="1:4">
+      <c r="A3398" s="2">
+        <f>A3397+7</f>
+        <v>43774</v>
+      </c>
+      <c r="B3398" s="4">
+        <v>515.25</v>
+      </c>
+      <c r="C3398" s="4">
+        <v>381.75</v>
+      </c>
+      <c r="D3398" s="4">
+        <v>934.25</v>
+      </c>
     </row>
     <row r="3399" spans="2:4">
       <c r="B3399" s="4"/>

--- a/database/CBOTFuturesData.xlsx
+++ b/database/CBOTFuturesData.xlsx
@@ -54,12 +54,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="###,###,###,###,##0.00"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -70,17 +70,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,21 +94,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,8 +122,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,7 +155,37 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,38 +199,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -192,23 +208,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,7 +229,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,7 +301,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,37 +325,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,19 +337,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,55 +361,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,19 +379,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,6 +423,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -438,17 +488,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,50 +520,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -528,10 +528,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,133 +540,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1008,11 +1008,11 @@
   <dimension ref="A1:D3402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E3375" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E3372" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G3384" sqref="G3384"/>
+      <selection pane="bottomRight" activeCell="H3393" sqref="H3393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -48560,20 +48560,50 @@
         <v>934.25</v>
       </c>
     </row>
-    <row r="3399" spans="2:4">
-      <c r="B3399" s="4"/>
-      <c r="C3399" s="4"/>
-      <c r="D3399" s="4"/>
-    </row>
-    <row r="3400" spans="2:4">
-      <c r="B3400" s="4"/>
-      <c r="C3400" s="4"/>
-      <c r="D3400" s="4"/>
-    </row>
-    <row r="3401" spans="2:4">
-      <c r="B3401" s="4"/>
-      <c r="C3401" s="4"/>
-      <c r="D3401" s="4"/>
+    <row r="3399" spans="1:4">
+      <c r="A3399" s="2">
+        <f>A3398+7</f>
+        <v>43781</v>
+      </c>
+      <c r="B3399" s="4">
+        <v>517</v>
+      </c>
+      <c r="C3399" s="4">
+        <v>377.75</v>
+      </c>
+      <c r="D3399" s="4">
+        <v>917.5</v>
+      </c>
+    </row>
+    <row r="3400" spans="1:4">
+      <c r="A3400" s="2">
+        <f>A3399+7</f>
+        <v>43788</v>
+      </c>
+      <c r="B3400" s="4">
+        <v>515.25</v>
+      </c>
+      <c r="C3400" s="4">
+        <v>370</v>
+      </c>
+      <c r="D3400" s="4">
+        <v>911.5</v>
+      </c>
+    </row>
+    <row r="3401" spans="1:4">
+      <c r="A3401" s="2">
+        <f>A3400+7</f>
+        <v>43795</v>
+      </c>
+      <c r="B3401" s="4">
+        <v>530.75</v>
+      </c>
+      <c r="C3401" s="4">
+        <v>379.25</v>
+      </c>
+      <c r="D3401" s="4">
+        <v>884.5</v>
+      </c>
     </row>
     <row r="3402" spans="2:4">
       <c r="B3402" s="4"/>
